--- a/Puskesmas.xlsx
+++ b/Puskesmas.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B4CE7C-9A32-4534-A9E7-7BF0DC817DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7556835-F987-4FD0-B2BF-076781331F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bab 4" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -165,7 +165,10 @@
     <t>Sumber/Source:</t>
   </si>
   <si>
-    <t>Tabel 4.2.3</t>
+    <t>Kecamatan {kec}</t>
+  </si>
+  <si>
+    <t>Tabel 4.2.5</t>
   </si>
   <si>
     <r>
@@ -179,7 +182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.4.</t>
+      <t xml:space="preserve"> 4.2.6.</t>
     </r>
   </si>
   <si>
@@ -194,35 +197,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 4.2.5.</t>
+      <t xml:space="preserve"> 4.2.7.</t>
     </r>
   </si>
   <si>
-    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2020</t>
-  </si>
-  <si>
-    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2020</t>
-  </si>
-  <si>
-    <t>Kecamatan {kec}</t>
+    <t>Jumlah Tenaga Kesehatan Menurut Kelurahan/Desa in Kecamatan {kec}. 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Bayi yang Diimunisasi Menurut Jenis dan Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Ibu Melahirkan dan Kelahiran Ditolong Tenaga Kesehatan Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Banyaknya Pasangan Usia Subur dan Peserta KB Menurut Desa/Kelurahan di Kecamatan {kec}, 2021</t>
+  </si>
+  <si>
+    <t>Number of Medical Personnel by Kelurahan/ Village in {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Immunized Babies by Types of Immunization and Kelurahan/Village {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Woman Giving Brth and Birth Assisted by Paramedics by Kelurahan/Village in {kec} Subdistrict, 2021</t>
+  </si>
+  <si>
+    <t>Number of Fertile Age Couples and Family Planning Members by Kelurahan/Village in {kec} Subdistrict, 2021</t>
   </si>
 </sst>
 </file>
@@ -810,9 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -841,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -849,20 +847,20 @@
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
       <c r="P1" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R1" s="37"/>
       <c r="S1" s="37"/>
@@ -870,10 +868,10 @@
       <c r="U1" s="18"/>
       <c r="V1" s="18"/>
       <c r="W1" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X1" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
@@ -883,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -894,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="48"/>
       <c r="K2" s="48"/>
@@ -904,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="49"/>
       <c r="S2" s="49"/>
@@ -915,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="48"/>
       <c r="Z2" s="48"/>
@@ -1605,7 +1603,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" thickBot="1">
       <c r="A29" s="31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="5">
@@ -1628,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="5">
@@ -1648,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="31"/>
       <c r="R29" s="5">
@@ -1660,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="31" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="5">
